--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Documentos\ROBOT MADE\webscraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4A733C-1C58-47BE-8A6D-44C16AC7295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52BAC1F-5AF2-4F96-A3D2-8F559CBB1E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Categoria 1</t>
   </si>
@@ -49,6 +49,33 @@
   </si>
   <si>
     <t>Imagen</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Dimensiones</t>
+  </si>
+  <si>
+    <t>Largo</t>
+  </si>
+  <si>
+    <t>Ancho</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Diametro</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>Contenido</t>
   </si>
 </sst>
 </file>
@@ -110,16 +137,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E90B6EA7-24C9-40A2-9EE6-4CD5108B9BD3}" name="Tabla1" displayName="Tabla1" ref="A1:H1048576" totalsRowShown="0">
-  <autoFilter ref="A1:H1048576" xr:uid="{E90B6EA7-24C9-40A2-9EE6-4CD5108B9BD3}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E90B6EA7-24C9-40A2-9EE6-4CD5108B9BD3}" name="Tabla1" displayName="Tabla1" ref="A1:Q1048576" totalsRowShown="0">
+  <autoFilter ref="A1:Q1048576" xr:uid="{E90B6EA7-24C9-40A2-9EE6-4CD5108B9BD3}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{7BD68917-1BB1-458C-AA52-548431FAAA6F}" name="Categoria 1"/>
     <tableColumn id="2" xr3:uid="{4EE04553-CE45-40A6-B1E2-D3C2CE1CDA79}" name="Categoria 2"/>
     <tableColumn id="3" xr3:uid="{30B9A430-9708-42C7-8151-C7469C5CFDC6}" name="Categoria 3"/>
     <tableColumn id="4" xr3:uid="{9A1350B8-F131-4CFF-A36F-43CA3C62F5EC}" name="Categoria 4"/>
     <tableColumn id="5" xr3:uid="{AEA4131D-10C0-4423-91B6-71B720F91365}" name="Categoria 5"/>
-    <tableColumn id="6" xr3:uid="{9ED1438A-5D84-4415-9CBD-EACD522D015F}" name="Nombre"/>
-    <tableColumn id="7" xr3:uid="{ADDE34AA-8FA1-4967-BD95-03BB9066D922}" name="Precio"/>
+    <tableColumn id="11" xr3:uid="{234E432D-FC2B-4D69-A97D-30EDDE7EED22}" name="Marca"/>
+    <tableColumn id="12" xr3:uid="{9FC79C02-7520-47D5-ABE4-C655A105CC98}" name="Nombre"/>
+    <tableColumn id="13" xr3:uid="{F20DCE84-A217-4F39-84DF-24706D8B581C}" name="Precio"/>
+    <tableColumn id="15" xr3:uid="{F7021D82-686D-4E62-89D9-B9A56CC29FE3}" name="Dimensiones"/>
+    <tableColumn id="16" xr3:uid="{6D06C065-4A1B-48B4-9A7D-F0B3DAC3D0AE}" name="Largo"/>
+    <tableColumn id="17" xr3:uid="{9B025D08-AD5F-4272-A7BE-807A2D063A49}" name="Ancho"/>
+    <tableColumn id="14" xr3:uid="{0DFEE663-A4E2-45FB-B27E-A8177AB180B7}" name="Alto"/>
+    <tableColumn id="9" xr3:uid="{EA739629-B65E-4C4C-8662-269DDA7D0611}" name="Diametro"/>
+    <tableColumn id="10" xr3:uid="{4585D58A-1667-4219-8D3C-5D88FC27CAEB}" name="Color"/>
+    <tableColumn id="6" xr3:uid="{9ED1438A-5D84-4415-9CBD-EACD522D015F}" name="Uso"/>
+    <tableColumn id="7" xr3:uid="{ADDE34AA-8FA1-4967-BD95-03BB9066D922}" name="Contenido"/>
     <tableColumn id="8" xr3:uid="{229D1E8F-1885-4439-AF0C-682951D30E39}" name="Imagen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -389,18 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="11.109375" customWidth="1"/>
+    <col min="1" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,12 +453,39 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Documentos\ROBOT MADE\webscraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52BAC1F-5AF2-4F96-A3D2-8F559CBB1E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDB0C5A-CA36-4390-A88B-DBA5A8FA82A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AH$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Categoria 1</t>
   </si>
@@ -76,6 +79,57 @@
   </si>
   <si>
     <t>Contenido</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Caracteristicas</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Colección</t>
+  </si>
+  <si>
+    <t>Numero de piezas</t>
+  </si>
+  <si>
+    <t>Capacidad Volumetrica</t>
+  </si>
+  <si>
+    <t>Garantia</t>
+  </si>
+  <si>
+    <t>Forma</t>
+  </si>
+  <si>
+    <t>Id Interno</t>
+  </si>
+  <si>
+    <t>Despacho a domicilio</t>
+  </si>
+  <si>
+    <t>Retiro en Tienda</t>
+  </si>
+  <si>
+    <t>Stock en tienda</t>
   </si>
 </sst>
 </file>
@@ -137,26 +191,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E90B6EA7-24C9-40A2-9EE6-4CD5108B9BD3}" name="Tabla1" displayName="Tabla1" ref="A1:Q1048576" totalsRowShown="0">
-  <autoFilter ref="A1:Q1048576" xr:uid="{E90B6EA7-24C9-40A2-9EE6-4CD5108B9BD3}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{7BD68917-1BB1-458C-AA52-548431FAAA6F}" name="Categoria 1"/>
-    <tableColumn id="2" xr3:uid="{4EE04553-CE45-40A6-B1E2-D3C2CE1CDA79}" name="Categoria 2"/>
-    <tableColumn id="3" xr3:uid="{30B9A430-9708-42C7-8151-C7469C5CFDC6}" name="Categoria 3"/>
-    <tableColumn id="4" xr3:uid="{9A1350B8-F131-4CFF-A36F-43CA3C62F5EC}" name="Categoria 4"/>
-    <tableColumn id="5" xr3:uid="{AEA4131D-10C0-4423-91B6-71B720F91365}" name="Categoria 5"/>
-    <tableColumn id="11" xr3:uid="{234E432D-FC2B-4D69-A97D-30EDDE7EED22}" name="Marca"/>
-    <tableColumn id="12" xr3:uid="{9FC79C02-7520-47D5-ABE4-C655A105CC98}" name="Nombre"/>
-    <tableColumn id="13" xr3:uid="{F20DCE84-A217-4F39-84DF-24706D8B581C}" name="Precio"/>
-    <tableColumn id="15" xr3:uid="{F7021D82-686D-4E62-89D9-B9A56CC29FE3}" name="Dimensiones"/>
-    <tableColumn id="16" xr3:uid="{6D06C065-4A1B-48B4-9A7D-F0B3DAC3D0AE}" name="Largo"/>
-    <tableColumn id="17" xr3:uid="{9B025D08-AD5F-4272-A7BE-807A2D063A49}" name="Ancho"/>
-    <tableColumn id="14" xr3:uid="{0DFEE663-A4E2-45FB-B27E-A8177AB180B7}" name="Alto"/>
-    <tableColumn id="9" xr3:uid="{EA739629-B65E-4C4C-8662-269DDA7D0611}" name="Diametro"/>
-    <tableColumn id="10" xr3:uid="{4585D58A-1667-4219-8D3C-5D88FC27CAEB}" name="Color"/>
-    <tableColumn id="6" xr3:uid="{9ED1438A-5D84-4415-9CBD-EACD522D015F}" name="Uso"/>
-    <tableColumn id="7" xr3:uid="{ADDE34AA-8FA1-4967-BD95-03BB9066D922}" name="Contenido"/>
-    <tableColumn id="8" xr3:uid="{229D1E8F-1885-4439-AF0C-682951D30E39}" name="Imagen"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{18985126-3F74-40E9-987C-4EF862975835}" name="Tabla3" displayName="Tabla3" ref="A1:AH20000" totalsRowShown="0">
+  <autoFilter ref="A1:AH20000" xr:uid="{18985126-3F74-40E9-987C-4EF862975835}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH7">
+    <sortCondition ref="A1:A20000"/>
+  </sortState>
+  <tableColumns count="34">
+    <tableColumn id="1" xr3:uid="{BB7A9947-F536-4F2E-B0D4-9FBA534A6DE1}" name="Categoria 1"/>
+    <tableColumn id="2" xr3:uid="{3C38140A-52C8-4200-B0E4-965C7901C42C}" name="Categoria 2"/>
+    <tableColumn id="3" xr3:uid="{B507F905-C7FA-4866-8033-97BB8C36DA11}" name="Categoria 3"/>
+    <tableColumn id="4" xr3:uid="{62C9E0B0-CCAE-44A3-993A-944D00B51CE3}" name="Categoria 4"/>
+    <tableColumn id="5" xr3:uid="{71BCB350-ED39-4C34-BB1C-FE5FC4968E43}" name="Categoria 5"/>
+    <tableColumn id="6" xr3:uid="{C7419928-B176-4312-9880-5D9440E53100}" name="Marca"/>
+    <tableColumn id="7" xr3:uid="{22B34713-A63E-49BF-AA04-272AA03991D0}" name="Nombre"/>
+    <tableColumn id="8" xr3:uid="{3CEC0E6D-50DF-41D9-AAEB-EAC164BF7763}" name="Modelo"/>
+    <tableColumn id="9" xr3:uid="{4A0ACC3B-3582-4D74-AC4B-9A8D9F1898FE}" name="Precio"/>
+    <tableColumn id="10" xr3:uid="{895C5DEE-F2F7-4C34-93BF-0CA5B80B6408}" name="Colección"/>
+    <tableColumn id="11" xr3:uid="{303F5AF8-3682-4226-A406-324A56A94C27}" name="Tipo"/>
+    <tableColumn id="12" xr3:uid="{1BB1C4EA-7B13-4F95-A869-C30BC03144B3}" name="Dimensiones"/>
+    <tableColumn id="13" xr3:uid="{BCBE39D2-A894-444F-929C-1B58AE7D97A6}" name="Largo"/>
+    <tableColumn id="14" xr3:uid="{657CC96C-4C0F-4B0E-9C83-81AD64E78646}" name="Ancho"/>
+    <tableColumn id="15" xr3:uid="{52F929B9-D86A-4E6B-8B0A-81180718799A}" name="Alto"/>
+    <tableColumn id="16" xr3:uid="{D676FBAA-19F2-4326-9D52-395D7E1AD2D6}" name="Diametro"/>
+    <tableColumn id="17" xr3:uid="{B2BFC219-5A23-4047-9F01-D725E39FED08}" name="Peso"/>
+    <tableColumn id="18" xr3:uid="{1E8B2EEB-C026-4145-A018-65CECE43DFAF}" name="Capacidad Volumetrica"/>
+    <tableColumn id="19" xr3:uid="{AAB157B0-2B79-41EE-B79E-27059A95F2DE}" name="Numero de piezas"/>
+    <tableColumn id="20" xr3:uid="{48171F62-9B87-4B08-BF89-BE71A3B0206A}" name="Color"/>
+    <tableColumn id="21" xr3:uid="{F720C9A7-B641-47B9-9658-9F1EDC9584F9}" name="Material"/>
+    <tableColumn id="22" xr3:uid="{424FE9F2-F473-4CE4-BFDB-46A37003F0E9}" name="Forma"/>
+    <tableColumn id="23" xr3:uid="{F3FF3E96-D662-41A1-8E7B-B50976CAEAB0}" name="Uso"/>
+    <tableColumn id="24" xr3:uid="{78CF9FA2-C280-4134-BCC3-351C08ADF244}" name="Origen"/>
+    <tableColumn id="25" xr3:uid="{83C74086-52CF-4AA1-A2C1-227565AC4846}" name="Garantia"/>
+    <tableColumn id="26" xr3:uid="{D8BF9F7A-A531-424C-BD6B-AC1589DAE3A1}" name="Caracteristicas"/>
+    <tableColumn id="27" xr3:uid="{694DCBE5-F15E-469C-A4DA-DDB146B10A86}" name="Contenido"/>
+    <tableColumn id="28" xr3:uid="{F481DEDE-9F91-44FF-9BA6-88F2089C30C8}" name="Despacho a domicilio"/>
+    <tableColumn id="29" xr3:uid="{75F848FC-F19C-465E-9204-E6BC5A9C09FA}" name="Retiro en Tienda"/>
+    <tableColumn id="30" xr3:uid="{930DEED3-B690-4CF5-8A3E-D392AFC207FB}" name="Stock en tienda"/>
+    <tableColumn id="31" xr3:uid="{6256D2E6-04D9-4FF4-A48C-80415D7F4359}" name="Fecha"/>
+    <tableColumn id="32" xr3:uid="{3D9FF73B-8CAC-4016-91B9-473B5568DA69}" name="Link"/>
+    <tableColumn id="33" xr3:uid="{3ADD7ACE-C27F-4460-8390-D714160B626D}" name="Id Interno"/>
+    <tableColumn id="34" xr3:uid="{9DA52FAE-9F2E-4C41-A583-7B378446B1CE}" name="Imagen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -425,18 +499,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="11.140625" customWidth="1"/>
+    <col min="1" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1"/>
+    <col min="20" max="29" width="17.28515625" customWidth="1"/>
+    <col min="30" max="30" width="21.85546875" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" customWidth="1"/>
+    <col min="32" max="34" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,41 +539,93 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AB1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Documentos\ROBOT MADE\webscraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDB0C5A-CA36-4390-A88B-DBA5A8FA82A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F1FB37-BBFC-4AF9-8B07-05DF255AFF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AH$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$BG$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Categoria 1</t>
   </si>
@@ -130,6 +130,87 @@
   </si>
   <si>
     <t>Stock en tienda</t>
+  </si>
+  <si>
+    <t>Bogota, Calle 26</t>
+  </si>
+  <si>
+    <t>Bogota, Cedritos</t>
+  </si>
+  <si>
+    <t>Bogota, Av. 68 sur</t>
+  </si>
+  <si>
+    <t>Bogota Tintal</t>
+  </si>
+  <si>
+    <t>Bogota, Suba</t>
+  </si>
+  <si>
+    <t>Bogota, Calima</t>
+  </si>
+  <si>
+    <t>Bogota, Calle 170</t>
+  </si>
+  <si>
+    <t>Mosquera</t>
+  </si>
+  <si>
+    <t>Cajica</t>
+  </si>
+  <si>
+    <t>Soacha, C.C. Mercurio</t>
+  </si>
+  <si>
+    <t>Girardot</t>
+  </si>
+  <si>
+    <t>Cali Norte</t>
+  </si>
+  <si>
+    <t>Cali C.C Jardin Plaza</t>
+  </si>
+  <si>
+    <t>Palmira, Unicentro</t>
+  </si>
+  <si>
+    <t>Tulua</t>
+  </si>
+  <si>
+    <t>Barranquilla Norte</t>
+  </si>
+  <si>
+    <t>Barranquilla Centro</t>
+  </si>
+  <si>
+    <t>Cartagena La Popa</t>
+  </si>
+  <si>
+    <t>Cartagena San Fernando</t>
+  </si>
+  <si>
+    <t>Santa Marta C.C. Buenavista</t>
+  </si>
+  <si>
+    <t>Barranquilla Calle 30</t>
+  </si>
+  <si>
+    <t>Medellin C.C. Molinos</t>
+  </si>
+  <si>
+    <t>Medellin, San Juan</t>
+  </si>
+  <si>
+    <t>Medellin, Envigado</t>
+  </si>
+  <si>
+    <t>Medellin, Industriales</t>
+  </si>
+  <si>
+    <t>Bello</t>
+  </si>
+  <si>
+    <t>Rionegro</t>
   </si>
 </sst>
 </file>
@@ -151,12 +232,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,13 +264,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -191,12 +297,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{18985126-3F74-40E9-987C-4EF862975835}" name="Tabla3" displayName="Tabla3" ref="A1:AH20000" totalsRowShown="0">
-  <autoFilter ref="A1:AH20000" xr:uid="{18985126-3F74-40E9-987C-4EF862975835}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH7">
-    <sortCondition ref="A1:A20000"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{18985126-3F74-40E9-987C-4EF862975835}" name="Tabla3" displayName="Tabla3" ref="A1:BI19999" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BI19999" xr:uid="{18985126-3F74-40E9-987C-4EF862975835}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BI6">
+    <sortCondition ref="A1:A19999"/>
   </sortState>
-  <tableColumns count="34">
+  <tableColumns count="61">
     <tableColumn id="1" xr3:uid="{BB7A9947-F536-4F2E-B0D4-9FBA534A6DE1}" name="Categoria 1"/>
     <tableColumn id="2" xr3:uid="{3C38140A-52C8-4200-B0E4-965C7901C42C}" name="Categoria 2"/>
     <tableColumn id="3" xr3:uid="{B507F905-C7FA-4866-8033-97BB8C36DA11}" name="Categoria 3"/>
@@ -230,7 +336,34 @@
     <tableColumn id="31" xr3:uid="{6256D2E6-04D9-4FF4-A48C-80415D7F4359}" name="Fecha"/>
     <tableColumn id="32" xr3:uid="{3D9FF73B-8CAC-4016-91B9-473B5568DA69}" name="Link"/>
     <tableColumn id="33" xr3:uid="{3ADD7ACE-C27F-4460-8390-D714160B626D}" name="Id Interno"/>
-    <tableColumn id="34" xr3:uid="{9DA52FAE-9F2E-4C41-A583-7B378446B1CE}" name="Imagen"/>
+    <tableColumn id="35" xr3:uid="{C22CEA8F-7337-44FC-B4E6-4E6C9AA83328}" name="Imagen"/>
+    <tableColumn id="43" xr3:uid="{22ED4CBA-45CC-4281-B179-92BEE73278C7}" name="Bogota, Calle 26"/>
+    <tableColumn id="44" xr3:uid="{928C56C8-2BBC-4150-B7D4-830763BD4830}" name="Bogota, Cedritos"/>
+    <tableColumn id="45" xr3:uid="{9A1ED85B-78BB-4DDA-AD9F-883FFB34A73F}" name="Bogota, Av. 68 sur"/>
+    <tableColumn id="46" xr3:uid="{99C5DBC2-395D-442B-AA7C-81D266930313}" name="Bogota Tintal"/>
+    <tableColumn id="47" xr3:uid="{9DFE0CA7-D301-4C14-AA85-FB2F568B7E6C}" name="Bogota, Suba"/>
+    <tableColumn id="48" xr3:uid="{D04912FD-92C4-4B52-889A-B489E8D2B1A8}" name="Bogota, Calima"/>
+    <tableColumn id="49" xr3:uid="{6EB2BAA2-F6DD-46B3-B604-EC88C524280F}" name="Bogota, Calle 170"/>
+    <tableColumn id="50" xr3:uid="{0E02A465-2CB6-45CC-851F-742562DA167B}" name="Soacha, C.C. Mercurio"/>
+    <tableColumn id="39" xr3:uid="{B23D10DF-E51B-4263-955C-85C61A3D4677}" name="Mosquera"/>
+    <tableColumn id="40" xr3:uid="{AC72739A-B0B3-4B6D-875C-5D3417BF38AF}" name="Cajica"/>
+    <tableColumn id="51" xr3:uid="{DC56E49B-FFE7-46CA-BAFC-8591A9572192}" name="Girardot"/>
+    <tableColumn id="52" xr3:uid="{F8DFE8AC-E425-4D19-B626-C354ECC636E0}" name="Cali Norte"/>
+    <tableColumn id="53" xr3:uid="{73A0996B-D659-4C91-8887-18CF71C645A9}" name="Cali C.C Jardin Plaza"/>
+    <tableColumn id="54" xr3:uid="{AE685E86-1AF0-4C5C-B78D-4CB4D461CF2A}" name="Palmira, Unicentro"/>
+    <tableColumn id="55" xr3:uid="{69224F02-50E6-42B2-9221-5079C04BCF28}" name="Tulua"/>
+    <tableColumn id="56" xr3:uid="{F325A63D-EA93-4062-95FD-B8D9D047344D}" name="Barranquilla Calle 30"/>
+    <tableColumn id="41" xr3:uid="{F0008D0D-5EF8-4E4A-B5DA-09CCA9AD7356}" name="Barranquilla Norte"/>
+    <tableColumn id="42" xr3:uid="{4AAEF827-D5DF-40E7-8625-71EC36D9BEB3}" name="Barranquilla Centro"/>
+    <tableColumn id="37" xr3:uid="{4B385EF7-5CAD-47C7-BA3E-4CD6EE9181CF}" name="Cartagena La Popa"/>
+    <tableColumn id="38" xr3:uid="{850256A0-D0E4-4B2A-B7A3-3646C2ADFDFB}" name="Cartagena San Fernando"/>
+    <tableColumn id="36" xr3:uid="{FBB47EAB-4D43-4DCA-B22A-0035A648D93B}" name="Santa Marta C.C. Buenavista"/>
+    <tableColumn id="58" xr3:uid="{129E5124-445B-4E8B-A28E-C60813DA32E3}" name="Medellin C.C. Molinos"/>
+    <tableColumn id="59" xr3:uid="{55DFD3F5-179C-4440-82F1-608252C2EEB2}" name="Medellin, San Juan"/>
+    <tableColumn id="60" xr3:uid="{4C6CE232-4287-4E81-9878-A1F6A3A4513F}" name="Medellin, Envigado"/>
+    <tableColumn id="61" xr3:uid="{2C01C134-2101-4633-8A29-526F017CAC4F}" name="Medellin, Industriales"/>
+    <tableColumn id="57" xr3:uid="{A4C2C583-CFF0-40B9-947A-9773F2A37704}" name="Bello"/>
+    <tableColumn id="34" xr3:uid="{9DA52FAE-9F2E-4C41-A583-7B378446B1CE}" name="Rionegro"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -499,125 +632,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:BI1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="17" width="17.28515625" customWidth="1"/>
     <col min="18" max="18" width="23.42578125" customWidth="1"/>
     <col min="19" max="19" width="19.140625" customWidth="1"/>
     <col min="20" max="29" width="17.28515625" customWidth="1"/>
     <col min="30" max="30" width="21.85546875" customWidth="1"/>
     <col min="31" max="31" width="17.7109375" customWidth="1"/>
-    <col min="32" max="34" width="17.28515625" customWidth="1"/>
+    <col min="32" max="43" width="17.28515625" customWidth="1"/>
+    <col min="44" max="44" width="18" customWidth="1"/>
+    <col min="45" max="61" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
